--- a/resource/学号与姓名表.xlsx
+++ b/resource/学号与姓名表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,60 @@
   <si>
     <t>入学年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USTC1958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红专并进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华民族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理实交融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>额</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>吧</t>
+  </si>
+  <si>
+    <t>怕</t>
+  </si>
+  <si>
+    <t>PB12345678</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
   </si>
 </sst>
 </file>
@@ -375,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -413,6 +467,66 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1958</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/学号与姓名表.xlsx
+++ b/resource/学号与姓名表.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +106,33 @@
   </si>
   <si>
     <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -429,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -527,6 +555,40 @@
         <v>23</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
